--- a/WebRoot/static/template/budget/FIT_PBCS Dimension table.xlsx
+++ b/WebRoot/static/template/budget/FIT_PBCS Dimension table.xlsx
@@ -11,8 +11,8 @@
     <sheet name="組織" sheetId="3" r:id="rId2"/>
     <sheet name="Entity-for FOIT" sheetId="9" r:id="rId3"/>
     <sheet name="次產業" sheetId="5" r:id="rId4"/>
-    <sheet name="Main Business" sheetId="15" r:id="rId5"/>
-    <sheet name="3+3" sheetId="17" r:id="rId6"/>
+    <sheet name="3+3" sheetId="15" r:id="rId5"/>
+    <sheet name="三大技術" sheetId="17" r:id="rId6"/>
     <sheet name="產品系列" sheetId="4" r:id="rId7"/>
     <sheet name="Product series for FOIT" sheetId="10" r:id="rId8"/>
     <sheet name="產品料號" sheetId="7" r:id="rId9"/>
@@ -213,6 +213,194 @@
     <t>Required, if not, please fill in "3+3缺省"</t>
   </si>
   <si>
+    <t>Required, if not, please fill in "MB缺省"</t>
+  </si>
+  <si>
+    <t>Required, if not, please fill in "產業缺省"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SBU_ Industry </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>filled in interface platform template must be selected from column B in "Sub Industry" form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SBU_ legal entity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> filled in interface platform template must be selected from column B in "Entity" form.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>必填項</t>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>交易貨幣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《交易貨幣》頁中的B列選擇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>交易類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《交易類型》頁中的B列選擇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>賬款客戶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《賬款客戶》頁中的B列選擇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>最終客戶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《最終客戶》頁中的B列選擇</t>
+    </r>
+  </si>
+  <si>
+    <t>必填項，若無請填相應的產品系列</t>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>產品料號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《產品料號》頁中的E列選擇</t>
+    </r>
+  </si>
+  <si>
+    <t>必填項，若無請填“產品缺省”</t>
+  </si>
+  <si>
+    <r>
+      <t>若營收預算規劃的產品是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>新產品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《產品系列》頁中的B列選擇產品系列</t>
+    </r>
+  </si>
+  <si>
+    <t>必填項，若無請填“3+3缺省”</t>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -228,259 +416,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> filled in interface platform template must be selected from column B in "3+3" form</t>
-    </r>
-  </si>
-  <si>
-    <t>Required, if not, please fill in "MB缺省"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Main Business</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> filled in interface platform template must be selected from column B in "Main Business" form.</t>
-    </r>
-  </si>
-  <si>
-    <t>Required, if not, please fill in "產業缺省"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SBU_ Industry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>filled in interface platform template must be selected from column B in "Sub Industry" form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SBU_ legal entity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> filled in interface platform template must be selected from column B in "Entity" form.</t>
-    </r>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>必填項</t>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>交易貨幣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《交易貨幣》頁中的B列選擇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>交易類型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《交易類型》頁中的B列選擇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>賬款客戶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《賬款客戶》頁中的B列選擇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>最終客戶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《最終客戶》頁中的B列選擇</t>
-    </r>
-  </si>
-  <si>
-    <t>必填項，若無請填相應的產品系列</t>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>產品料號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《產品料號》頁中的E列選擇</t>
-    </r>
-  </si>
-  <si>
-    <t>必填項，若無請填“產品缺省”</t>
-  </si>
-  <si>
-    <r>
-      <t>若營收預算規劃的產品是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>新產品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《產品系列》頁中的B列選擇產品系列</t>
-    </r>
-  </si>
-  <si>
-    <t>必填項，若無請填“3+3缺省”</t>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3+3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>，必須從《3+3》頁中的B列選擇</t>
     </r>
   </si>
   <si>
     <t>必填項，若無請填“MB缺省”</t>
-  </si>
-  <si>
-    <r>
-      <t>接口平台導入模板中填入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Main Business</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>，必須從《Main Business》頁中的B列選擇</t>
-    </r>
   </si>
   <si>
     <t>必填項，若無請填“產業缺省”</t>
@@ -543,9 +483,6 @@
     <t>次產業</t>
   </si>
   <si>
-    <t>Main Business</t>
-  </si>
-  <si>
     <t>3+3</t>
   </si>
   <si>
@@ -571,6 +508,69 @@
   </si>
   <si>
     <t>若為零散小客戶，選擇“其他最終客戶”</t>
+  </si>
+  <si>
+    <t>三大技術</t>
+  </si>
+  <si>
+    <r>
+      <t>接口平台導入模板中填入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>三大技術</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，必須從《三大技術》頁中的B列選擇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> filled in interface platform template must be selected from column B in "3+3" form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Three major technologies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> filled in interface platform template must be selected from column B in "Three major technologies" form</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -756,6 +756,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1058,120 +1061,120 @@
     <row r="2" spans="2:4">
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.4">
       <c r="B3" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="12.6" customHeight="1">
       <c r="B4" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.4">
-      <c r="B5" s="20" t="s">
-        <v>49</v>
+      <c r="B5" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.4">
       <c r="B6" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.4">
       <c r="B7" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.4">
       <c r="B8" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.4">
       <c r="B9" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.4">
       <c r="B10" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.4">
       <c r="B11" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.4">
       <c r="B12" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1182,7 +1185,7 @@
     <row r="16" spans="2:4">
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>9</v>
@@ -1190,10 +1193,10 @@
     </row>
     <row r="17" spans="2:4" ht="27">
       <c r="B17" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>10</v>
@@ -1201,32 +1204,32 @@
     </row>
     <row r="18" spans="2:4" ht="27">
       <c r="B18" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="27">
-      <c r="B19" s="20" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="14.4">
+      <c r="B19" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="14.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="27">
       <c r="B20" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>21</v>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="21" spans="2:4" ht="27">
       <c r="B21" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>20</v>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="22" spans="2:4" ht="27">
       <c r="B22" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>18</v>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="23" spans="2:4" ht="27">
       <c r="B23" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>16</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="24" spans="2:4" ht="27">
       <c r="B24" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>14</v>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="25" spans="2:4" ht="27">
       <c r="B25" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>12</v>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="26" spans="2:4" ht="27">
       <c r="B26" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>11</v>
@@ -1302,8 +1305,7 @@
   <hyperlinks>
     <hyperlink ref="B3" location="組織!A1" display="組織"/>
     <hyperlink ref="B4" location="次產業!A1" display="次產業"/>
-    <hyperlink ref="B5" location="'Main Business'!A1" display="Main Business"/>
-    <hyperlink ref="B6" location="'3+3'!A1" display="3+3"/>
+    <hyperlink ref="B6" location="三大技術!A1" display="三大技術"/>
     <hyperlink ref="B7" location="產品系列!A1" display="產品系列"/>
     <hyperlink ref="B8" location="產品料號!A1" display="產品料號"/>
     <hyperlink ref="B9" location="最終客戶!A1" display="最終客戶"/>
@@ -1312,14 +1314,15 @@
     <hyperlink ref="B12" location="交易貨幣!A1" display="交易貨幣"/>
     <hyperlink ref="B17" location="組織!A1" display="組織"/>
     <hyperlink ref="B18" location="次產業!A1" display="次產業"/>
-    <hyperlink ref="B19" location="'Main Business'!A1" display="Main Business"/>
-    <hyperlink ref="B20" location="'3+3'!A1" display="3+3"/>
     <hyperlink ref="B21" location="產品系列!A1" display="產品系列"/>
     <hyperlink ref="B22" location="產品料號!A1" display="產品料號"/>
     <hyperlink ref="B23" location="最終客戶!A1" display="最終客戶"/>
     <hyperlink ref="B24" location="账款客户!A1" display="賬款客戶"/>
     <hyperlink ref="B25" location="交易類型!A1" display="交易類型"/>
     <hyperlink ref="B26" location="交易貨幣!A1" display="交易貨幣"/>
+    <hyperlink ref="B5" location="'3+3'!A1" display="3+3"/>
+    <hyperlink ref="B19" location="'3+3'!A1" display="3+3"/>
+    <hyperlink ref="B20" location="三大技術!A1" display="三大技術"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1565,9 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1591,9 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
